--- a/data/trans_dic/P1802-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1802-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,12 +735,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,37; 20,12</t>
+          <t>12,75; 20,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,45; 21,55</t>
+          <t>14,53; 21,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +755,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,65; 19,87</t>
+          <t>11,61; 19,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,13; 25,84</t>
+          <t>19,11; 25,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +775,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,34; 18,51</t>
+          <t>13,25; 18,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,38; 22,31</t>
+          <t>17,47; 22,14</t>
         </is>
       </c>
     </row>
@@ -874,12 +875,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,48; 16,6</t>
+          <t>8,9; 16,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,87; 20,51</t>
+          <t>13,12; 20,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +895,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,74; 21,67</t>
+          <t>13,84; 21,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,14; 23,98</t>
+          <t>17,08; 24,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +915,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,21; 17,78</t>
+          <t>12,39; 17,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,95; 20,95</t>
+          <t>16,02; 21,5</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,45; 18,82</t>
+          <t>12,25; 18,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,06; 78,62</t>
+          <t>15,15; 80,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1035,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,17; 32,28</t>
+          <t>18,46; 31,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,35; 27,23</t>
+          <t>16,92; 28,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1055,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,92; 20,95</t>
+          <t>14,66; 20,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,81; 76,86</t>
+          <t>16,83; 75,63</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1155,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,32; 17,52</t>
+          <t>13,37; 17,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,24; 20,14</t>
+          <t>15,49; 20,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1175,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,77; 22,14</t>
+          <t>16,63; 22,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,3; 21,85</t>
+          <t>8,98; 21,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1195,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,22; 18,7</t>
+          <t>15,27; 18,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,48; 19,91</t>
+          <t>11,07; 19,8</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1295,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,11; 16,84</t>
+          <t>11,34; 17,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,34; 19,56</t>
+          <t>12,26; 19,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,12 +1315,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,1; 22,06</t>
+          <t>15,87; 21,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,34; 19,01</t>
+          <t>11,95; 19,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,12 +1335,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,48; 18,58</t>
+          <t>14,77; 18,84</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,43; 18,43</t>
+          <t>13,32; 18,23</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1435,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,7; 14,06</t>
+          <t>6,92; 14,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,97; 9,24</t>
+          <t>1,89; 9,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,12 +1455,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,42; 22,26</t>
+          <t>17,06; 22,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,85; 16,3</t>
+          <t>11,94; 16,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,12 +1475,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,66; 20,08</t>
+          <t>15,36; 20,01</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,93; 13,68</t>
+          <t>9,95; 13,59</t>
         </is>
       </c>
     </row>
@@ -1574,12 +1575,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,21; 15,72</t>
+          <t>13,15; 15,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,57; 41,27</t>
+          <t>15,49; 39,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1594,12 +1595,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,68; 20,48</t>
+          <t>17,55; 20,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,17; 18,95</t>
+          <t>13,98; 18,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1614,12 +1615,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15,8; 17,64</t>
+          <t>15,84; 17,67</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,27; 29,06</t>
+          <t>16,17; 31,13</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que en los últimos 12 meses han visitado un centro de servicio de radiología</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>68714</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>88948</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>53803</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>99680</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>122517</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>188628</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1995</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>54705; 87200</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>73284; 106453</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1969</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2125</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>40284; 68683</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>85401; 115796</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1988</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2098</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>102874; 144654</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>166247; 210602</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>46959</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>74290</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>64634</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>78286</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>111594</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>152576</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2007</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2138</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>33579; 60594</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>59314; 93708</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1961</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2120</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>51538; 80846</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>65214; 92340</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1987</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2134</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>92854; 132888</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>133656; 179378</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>80607</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>311858</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>40745</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>35873</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>121352</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>347731</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1954</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2041</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>63909; 97950</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>101229; 540940</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1951</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2038</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>30674; 52923</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>28241; 46991</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1956</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>100834; 141965</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>140582; 631645</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>176554</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>182962</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>159020</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>162739</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>335573</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>345702</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1941</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2053</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>153755; 203531</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>160226; 211534</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1973</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2068</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>137358; 182351</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>87724; 213362</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1954</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2060</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>301756; 370782</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>222677; 398222</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>86391</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>74983</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>139476</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>137320</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>225867</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>212304</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1973</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2009</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>70364; 105959</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>58254; 94562</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2022</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2077</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>117162; 160759</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>100554; 161486</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2051</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>200774; 256092</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>175369; 240030</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>28382</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>10913</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>211583</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>105303</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>239965</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>116216</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1864</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>19869; 40314</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>4534; 22378</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1936</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2039</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>184588; 239477</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>90799; 124317</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1923</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2018</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>210341; 273947</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>99574; 136062</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1062</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1077</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1612</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>487606</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>743956</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>669261</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>619202</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1156868</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1363157</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1958</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2050</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>445301; 535211</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>522593; 1318122</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>619872; 715228</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>499675; 676790</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2061</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1095593; 1222230</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1123643; 2163388</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P1802-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1802-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
